--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.823</v>
+        <v>8.853799999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.838400000000003</v>
+        <v>5.807</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.082300000000004</v>
+        <v>5.043400000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.879199999999996</v>
+        <v>6.803799999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.31749999999999</v>
+        <v>9.413099999999991</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.963600000000001</v>
+        <v>5.832799999999997</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.054600000000002</v>
+        <v>5.153200000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.172499999999997</v>
+        <v>7.093299999999996</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.323999999999991</v>
+        <v>9.207099999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.219000000000001</v>
+        <v>5.878099999999996</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.7396</v>
+        <v>5.6876</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.108</v>
+        <v>5.2331</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.271599999999996</v>
+        <v>5.464899999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.717999999999998</v>
+        <v>4.890299999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.5509</v>
+        <v>5.606300000000001</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.591199999999995</v>
+        <v>5.554199999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.621599999999999</v>
+        <v>8.797600000000001</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.346999999999992</v>
+        <v>9.183399999999995</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.833299999999997</v>
+        <v>4.781899999999996</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.479699999999997</v>
+        <v>5.301899999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
